--- a/Code/Results/Cases/Case_4_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014542187796662</v>
+        <v>1.044946558196912</v>
       </c>
       <c r="D2">
-        <v>1.030848692429698</v>
+        <v>1.048112601328319</v>
       </c>
       <c r="E2">
-        <v>1.022622813144623</v>
+        <v>1.048611548717642</v>
       </c>
       <c r="F2">
-        <v>1.020037859056223</v>
+        <v>1.053766071812368</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052205873330166</v>
+        <v>1.045997656216752</v>
       </c>
       <c r="J2">
-        <v>1.036296476986166</v>
+        <v>1.050008921586046</v>
       </c>
       <c r="K2">
-        <v>1.041894355321288</v>
+        <v>1.050873354813739</v>
       </c>
       <c r="L2">
-        <v>1.033775722494835</v>
+        <v>1.051370910096921</v>
       </c>
       <c r="M2">
-        <v>1.031224918359767</v>
+        <v>1.056511135245837</v>
       </c>
       <c r="N2">
-        <v>1.014047861875296</v>
+        <v>1.020279421341814</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020949822223086</v>
+        <v>1.04619719095088</v>
       </c>
       <c r="D3">
-        <v>1.035935909834741</v>
+        <v>1.049111611676476</v>
       </c>
       <c r="E3">
-        <v>1.028531618807648</v>
+        <v>1.049811845816773</v>
       </c>
       <c r="F3">
-        <v>1.02711455255114</v>
+        <v>1.055228126875075</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055051399184589</v>
+        <v>1.046465442010958</v>
       </c>
       <c r="J3">
-        <v>1.040885221412848</v>
+        <v>1.050905528185158</v>
       </c>
       <c r="K3">
-        <v>1.046128738755004</v>
+        <v>1.051683860775927</v>
       </c>
       <c r="L3">
-        <v>1.038811997367748</v>
+        <v>1.052382283382463</v>
       </c>
       <c r="M3">
-        <v>1.037411865221755</v>
+        <v>1.057784639903008</v>
       </c>
       <c r="N3">
-        <v>1.015782219886935</v>
+        <v>1.020602559376399</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024980131832732</v>
+        <v>1.04700538761458</v>
       </c>
       <c r="D4">
-        <v>1.039137856726315</v>
+        <v>1.049757099156007</v>
       </c>
       <c r="E4">
-        <v>1.032253095971849</v>
+        <v>1.050587822955968</v>
       </c>
       <c r="F4">
-        <v>1.031570155833098</v>
+        <v>1.056173549686864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056829259564789</v>
+        <v>1.046766292966245</v>
       </c>
       <c r="J4">
-        <v>1.043765731370804</v>
+        <v>1.051484150606172</v>
       </c>
       <c r="K4">
-        <v>1.048785799655854</v>
+        <v>1.052206764253219</v>
       </c>
       <c r="L4">
-        <v>1.041977235358906</v>
+        <v>1.053035447810978</v>
       </c>
       <c r="M4">
-        <v>1.041301921836614</v>
+        <v>1.058607545703716</v>
       </c>
       <c r="N4">
-        <v>1.01686822544857</v>
+        <v>1.02081052835659</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026648125536943</v>
+        <v>1.047344906979854</v>
       </c>
       <c r="D5">
-        <v>1.040463471405017</v>
+        <v>1.050028239804374</v>
       </c>
       <c r="E5">
-        <v>1.033794407556557</v>
+        <v>1.050913880566358</v>
       </c>
       <c r="F5">
-        <v>1.033415269226171</v>
+        <v>1.056570861047811</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057562146552795</v>
+        <v>1.046892332445008</v>
       </c>
       <c r="J5">
-        <v>1.04495644752743</v>
+        <v>1.051727037134713</v>
       </c>
       <c r="K5">
-        <v>1.049883896611819</v>
+        <v>1.052426224714892</v>
       </c>
       <c r="L5">
-        <v>1.043286563011834</v>
+        <v>1.053309739088548</v>
       </c>
       <c r="M5">
-        <v>1.042911536683189</v>
+        <v>1.058953227685894</v>
       </c>
       <c r="N5">
-        <v>1.017316466723444</v>
+        <v>1.020897690594874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026926682368692</v>
+        <v>1.047401899435292</v>
       </c>
       <c r="D6">
-        <v>1.040684875028193</v>
+        <v>1.050073752550088</v>
       </c>
       <c r="E6">
-        <v>1.034051873529168</v>
+        <v>1.050968617600307</v>
       </c>
       <c r="F6">
-        <v>1.033723471306275</v>
+        <v>1.0566375630555</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057684367691018</v>
+        <v>1.046913469377255</v>
       </c>
       <c r="J6">
-        <v>1.045155213895491</v>
+        <v>1.051767797451206</v>
       </c>
       <c r="K6">
-        <v>1.050067186906376</v>
+        <v>1.052463051574066</v>
       </c>
       <c r="L6">
-        <v>1.043505183012421</v>
+        <v>1.053355776351899</v>
       </c>
       <c r="M6">
-        <v>1.04318032492578</v>
+        <v>1.059011253650648</v>
       </c>
       <c r="N6">
-        <v>1.017391250771332</v>
+        <v>1.020912309833656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025002521418481</v>
+        <v>1.047009925252615</v>
       </c>
       <c r="D7">
-        <v>1.03915564884795</v>
+        <v>1.049760723020939</v>
       </c>
       <c r="E7">
-        <v>1.032273780679249</v>
+        <v>1.050592180390805</v>
       </c>
       <c r="F7">
-        <v>1.031594918484342</v>
+        <v>1.056178859141672</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056839108689035</v>
+        <v>1.046767978831902</v>
       </c>
       <c r="J7">
-        <v>1.043781720095002</v>
+        <v>1.051487397503803</v>
       </c>
       <c r="K7">
-        <v>1.048800545718152</v>
+        <v>1.052209698138223</v>
       </c>
       <c r="L7">
-        <v>1.041994813157657</v>
+        <v>1.053039114075767</v>
       </c>
       <c r="M7">
-        <v>1.041323529102223</v>
+        <v>1.05861216576917</v>
       </c>
       <c r="N7">
-        <v>1.016874247087083</v>
+        <v>1.020811694074288</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016732536896173</v>
+        <v>1.045369434450585</v>
       </c>
       <c r="D8">
-        <v>1.032587178421524</v>
+        <v>1.048450417500197</v>
       </c>
       <c r="E8">
-        <v>1.02464157613704</v>
+        <v>1.049017340701103</v>
       </c>
       <c r="F8">
-        <v>1.022455996668245</v>
+        <v>1.054260312585511</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053181062998279</v>
+        <v>1.046156128152973</v>
       </c>
       <c r="J8">
-        <v>1.037866252556449</v>
+        <v>1.05031225496768</v>
       </c>
       <c r="K8">
-        <v>1.043343111789731</v>
+        <v>1.051147591117724</v>
       </c>
       <c r="L8">
-        <v>1.035497794370105</v>
+        <v>1.051712971495505</v>
       </c>
       <c r="M8">
-        <v>1.0333401416408</v>
+        <v>1.056941760248066</v>
       </c>
       <c r="N8">
-        <v>1.014641725734149</v>
+        <v>1.020388860414872</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001204037478702</v>
+        <v>1.042470487156607</v>
       </c>
       <c r="D9">
-        <v>1.020274600462585</v>
+        <v>1.046134186705304</v>
       </c>
       <c r="E9">
-        <v>1.010353011666749</v>
+        <v>1.046236798595462</v>
       </c>
       <c r="F9">
-        <v>1.005330215711143</v>
+        <v>1.050874574476566</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046217706816051</v>
+        <v>1.045063817995636</v>
       </c>
       <c r="J9">
-        <v>1.02671434960476</v>
+        <v>1.048229566911073</v>
       </c>
       <c r="K9">
-        <v>1.033047082980411</v>
+        <v>1.049264056036915</v>
       </c>
       <c r="L9">
-        <v>1.023280322324813</v>
+        <v>1.049366340290079</v>
       </c>
       <c r="M9">
-        <v>1.018337401805008</v>
+        <v>1.053989380935107</v>
       </c>
       <c r="N9">
-        <v>1.010412454430271</v>
+        <v>1.0196351320679</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9901028009157005</v>
+        <v>1.040532094807151</v>
       </c>
       <c r="D10">
-        <v>1.011492164463457</v>
+        <v>1.044584960535302</v>
       </c>
       <c r="E10">
-        <v>1.000171059831511</v>
+        <v>1.044379214896562</v>
       </c>
       <c r="F10">
-        <v>0.9931076068456753</v>
+        <v>1.048613720758785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041177951736688</v>
+        <v>1.044325988896067</v>
       </c>
       <c r="J10">
-        <v>1.018714673654675</v>
+        <v>1.046832903308447</v>
       </c>
       <c r="K10">
-        <v>1.0256569788172</v>
+        <v>1.048000163887194</v>
       </c>
       <c r="L10">
-        <v>1.014537226426963</v>
+        <v>1.047795140254658</v>
       </c>
       <c r="M10">
-        <v>1.007602430754411</v>
+        <v>1.052014849184872</v>
       </c>
       <c r="N10">
-        <v>1.007366911047325</v>
+        <v>1.019126778122367</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9850908151877943</v>
+        <v>1.039691326353508</v>
       </c>
       <c r="D11">
-        <v>1.007533131164804</v>
+        <v>1.043912888899826</v>
       </c>
       <c r="E11">
-        <v>0.9955829329211778</v>
+        <v>1.04357389103668</v>
       </c>
       <c r="F11">
-        <v>0.98759346962202</v>
+        <v>1.047633797151841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038888624266204</v>
+        <v>1.044004194019674</v>
       </c>
       <c r="J11">
-        <v>1.015097261496009</v>
+        <v>1.046226145963908</v>
       </c>
       <c r="K11">
-        <v>1.022314368339075</v>
+        <v>1.047450903820174</v>
       </c>
       <c r="L11">
-        <v>1.010588632181135</v>
+        <v>1.047113142154535</v>
       </c>
       <c r="M11">
-        <v>1.00275320993121</v>
+        <v>1.051158301395514</v>
       </c>
       <c r="N11">
-        <v>1.005987483972869</v>
+        <v>1.018905250049665</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9831956668506998</v>
+        <v>1.039378807425609</v>
       </c>
       <c r="D12">
-        <v>1.006037168090552</v>
+        <v>1.043663061060415</v>
       </c>
       <c r="E12">
-        <v>0.9938494769219037</v>
+        <v>1.043274606827554</v>
       </c>
       <c r="F12">
-        <v>0.9855089924587295</v>
+        <v>1.047269659479148</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038020938729607</v>
+        <v>1.04388431584649</v>
       </c>
       <c r="J12">
-        <v>1.013728645254053</v>
+        <v>1.046000466299448</v>
       </c>
       <c r="K12">
-        <v>1.021049612335267</v>
+        <v>1.04724658260117</v>
       </c>
       <c r="L12">
-        <v>1.009095467564202</v>
+        <v>1.046859564769043</v>
       </c>
       <c r="M12">
-        <v>1.00091918474401</v>
+        <v>1.05083990102202</v>
       </c>
       <c r="N12">
-        <v>1.005465301318304</v>
+        <v>1.018822752010188</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9836037435864727</v>
+        <v>1.039445853836269</v>
       </c>
       <c r="D13">
-        <v>1.006359240317585</v>
+        <v>1.04371665865327</v>
       </c>
       <c r="E13">
-        <v>0.994222671112051</v>
+        <v>1.043338811209641</v>
       </c>
       <c r="F13">
-        <v>0.9859578134373382</v>
+        <v>1.047347775154593</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038207865824693</v>
+        <v>1.04391004595995</v>
       </c>
       <c r="J13">
-        <v>1.014023379771778</v>
+        <v>1.046048889121282</v>
       </c>
       <c r="K13">
-        <v>1.021321984916061</v>
+        <v>1.047290423893665</v>
       </c>
       <c r="L13">
-        <v>1.009416989890678</v>
+        <v>1.046913969485856</v>
       </c>
       <c r="M13">
-        <v>1.001314119624312</v>
+        <v>1.050908209951805</v>
       </c>
       <c r="N13">
-        <v>1.005577766694856</v>
+        <v>1.018840457761805</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9849348610138597</v>
+        <v>1.039665497960092</v>
       </c>
       <c r="D14">
-        <v>1.007410004586425</v>
+        <v>1.043892241957853</v>
       </c>
       <c r="E14">
-        <v>0.9954402551950817</v>
+        <v>1.043549155216522</v>
       </c>
       <c r="F14">
-        <v>0.9874219247122126</v>
+        <v>1.04760370052336</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038817262269135</v>
+        <v>1.043994291989261</v>
       </c>
       <c r="J14">
-        <v>1.014984651887207</v>
+        <v>1.046207497413718</v>
       </c>
       <c r="K14">
-        <v>1.022210306432848</v>
+        <v>1.047434020734706</v>
       </c>
       <c r="L14">
-        <v>1.010465759489679</v>
+        <v>1.047092186550471</v>
       </c>
       <c r="M14">
-        <v>1.002602294420512</v>
+        <v>1.051131987257844</v>
       </c>
       <c r="N14">
-        <v>1.005944524391026</v>
+        <v>1.01889843508091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9857504857840031</v>
+        <v>1.039800798640569</v>
       </c>
       <c r="D15">
-        <v>1.008053987366162</v>
+        <v>1.044000399285061</v>
       </c>
       <c r="E15">
-        <v>0.9961865038576356</v>
+        <v>1.043678734958284</v>
       </c>
       <c r="F15">
-        <v>0.9883191092265518</v>
+        <v>1.047761364468401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039190395935646</v>
+        <v>1.044046152406974</v>
       </c>
       <c r="J15">
-        <v>1.015573557279521</v>
+        <v>1.046305180963502</v>
       </c>
       <c r="K15">
-        <v>1.022754506292264</v>
+        <v>1.047522455432101</v>
       </c>
       <c r="L15">
-        <v>1.01110836745817</v>
+        <v>1.047201958336448</v>
       </c>
       <c r="M15">
-        <v>1.00339155012331</v>
+        <v>1.051269831818969</v>
       </c>
       <c r="N15">
-        <v>1.006169175227354</v>
+        <v>1.018934128606701</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9904308888827843</v>
+        <v>1.04058786325001</v>
       </c>
       <c r="D16">
-        <v>1.011751461565185</v>
+        <v>1.044629537178329</v>
       </c>
       <c r="E16">
-        <v>1.000471592310699</v>
+        <v>1.044432640632119</v>
       </c>
       <c r="F16">
-        <v>0.9934686454892672</v>
+        <v>1.048678734316043</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04132752821645</v>
+        <v>1.04434729650758</v>
       </c>
       <c r="J16">
-        <v>1.018951359213983</v>
+        <v>1.046873129504492</v>
       </c>
       <c r="K16">
-        <v>1.025875668261249</v>
+        <v>1.048036574349923</v>
       </c>
       <c r="L16">
-        <v>1.014795684505241</v>
+        <v>1.047840366962981</v>
       </c>
       <c r="M16">
-        <v>1.00791980765196</v>
+        <v>1.052071662039879</v>
       </c>
       <c r="N16">
-        <v>1.007457123819541</v>
+        <v>1.019141450455566</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.993310092579794</v>
+        <v>1.041081181250008</v>
       </c>
       <c r="D17">
-        <v>1.014027675867866</v>
+        <v>1.045023842757588</v>
       </c>
       <c r="E17">
-        <v>1.003109984300554</v>
+        <v>1.044905281013992</v>
       </c>
       <c r="F17">
-        <v>0.9966374729522389</v>
+        <v>1.049253914966243</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042638595116788</v>
+        <v>1.044535576258802</v>
       </c>
       <c r="J17">
-        <v>1.021027803930415</v>
+        <v>1.047228852573967</v>
       </c>
       <c r="K17">
-        <v>1.027794139698919</v>
+        <v>1.048358533533036</v>
       </c>
       <c r="L17">
-        <v>1.017063703078188</v>
+        <v>1.048240377218271</v>
       </c>
       <c r="M17">
-        <v>1.010704717439968</v>
+        <v>1.052574206653802</v>
       </c>
       <c r="N17">
-        <v>1.008248313152775</v>
+        <v>1.019271120315311</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9949698920254907</v>
+        <v>1.041368787486297</v>
       </c>
       <c r="D18">
-        <v>1.015340426088843</v>
+        <v>1.045253714484456</v>
       </c>
       <c r="E18">
-        <v>1.004631784133549</v>
+        <v>1.045180870086031</v>
       </c>
       <c r="F18">
-        <v>0.9984646277357422</v>
+        <v>1.049589316006085</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043393077543451</v>
+        <v>1.044645173918123</v>
       </c>
       <c r="J18">
-        <v>1.022224286970624</v>
+        <v>1.0474361477903</v>
       </c>
       <c r="K18">
-        <v>1.028899515282871</v>
+        <v>1.048546135429713</v>
       </c>
       <c r="L18">
-        <v>1.018371043053502</v>
+        <v>1.048473536707789</v>
       </c>
       <c r="M18">
-        <v>1.012309916438743</v>
+        <v>1.05286718204807</v>
       </c>
       <c r="N18">
-        <v>1.008703995309883</v>
+        <v>1.019346618832617</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.99553259358864</v>
+        <v>1.04146683055595</v>
       </c>
       <c r="D19">
-        <v>1.015785563371088</v>
+        <v>1.045332074538289</v>
       </c>
       <c r="E19">
-        <v>1.005147838307997</v>
+        <v>1.045274823007508</v>
       </c>
       <c r="F19">
-        <v>0.9990841344984142</v>
+        <v>1.04970366366168</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043648634901636</v>
+        <v>1.044682506173553</v>
       </c>
       <c r="J19">
-        <v>1.022629821929366</v>
+        <v>1.047506797637759</v>
       </c>
       <c r="K19">
-        <v>1.029274156180394</v>
+        <v>1.048610070449849</v>
       </c>
       <c r="L19">
-        <v>1.018814231242418</v>
+        <v>1.04855301109089</v>
       </c>
       <c r="M19">
-        <v>1.012854067295939</v>
+        <v>1.052967053749612</v>
       </c>
       <c r="N19">
-        <v>1.008858406019625</v>
+        <v>1.019372338891729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9930032259517233</v>
+        <v>1.041028267188801</v>
       </c>
       <c r="D20">
-        <v>1.013785016886064</v>
+        <v>1.04498154994211</v>
       </c>
       <c r="E20">
-        <v>1.002828697292314</v>
+        <v>1.044854580935143</v>
       </c>
       <c r="F20">
-        <v>0.9962996977252994</v>
+        <v>1.049192213099958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042498997794838</v>
+        <v>1.044515398678223</v>
       </c>
       <c r="J20">
-        <v>1.020806551600278</v>
+        <v>1.047190706744864</v>
       </c>
       <c r="K20">
-        <v>1.027589728211824</v>
+        <v>1.048324010185706</v>
       </c>
       <c r="L20">
-        <v>1.016821989164828</v>
+        <v>1.04819747645338</v>
       </c>
       <c r="M20">
-        <v>1.0104079260507</v>
+        <v>1.052520303969224</v>
       </c>
       <c r="N20">
-        <v>1.008164031181427</v>
+        <v>1.019257222013573</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9845438271224725</v>
+        <v>1.03960082435578</v>
       </c>
       <c r="D21">
-        <v>1.007101298606482</v>
+        <v>1.043840542336093</v>
       </c>
       <c r="E21">
-        <v>0.9950825333984082</v>
+        <v>1.043487218352983</v>
       </c>
       <c r="F21">
-        <v>0.9869918076898042</v>
+        <v>1.047528341084202</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038638299212686</v>
+        <v>1.043969493291347</v>
       </c>
       <c r="J21">
-        <v>1.014702286168836</v>
+        <v>1.046160799617109</v>
       </c>
       <c r="K21">
-        <v>1.021949372178654</v>
+        <v>1.047391743394287</v>
       </c>
       <c r="L21">
-        <v>1.010157671446563</v>
+        <v>1.04703971307958</v>
       </c>
       <c r="M21">
-        <v>1.002223887387239</v>
+        <v>1.051066097099988</v>
       </c>
       <c r="N21">
-        <v>1.005836799870885</v>
+        <v>1.018881368085281</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9790298386074299</v>
+        <v>1.038702058539046</v>
       </c>
       <c r="D22">
-        <v>1.002750880920071</v>
+        <v>1.043122041715458</v>
       </c>
       <c r="E22">
-        <v>0.990041809687648</v>
+        <v>1.042626627103284</v>
       </c>
       <c r="F22">
-        <v>0.9809279074721264</v>
+        <v>1.046481325301344</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036109948974743</v>
+        <v>1.043624239295009</v>
       </c>
       <c r="J22">
-        <v>1.01071884556334</v>
+        <v>1.04551150144746</v>
       </c>
       <c r="K22">
-        <v>1.018268038589715</v>
+        <v>1.04680384387835</v>
       </c>
       <c r="L22">
-        <v>1.005813155586451</v>
+        <v>1.046310316044852</v>
       </c>
       <c r="M22">
-        <v>0.996886896660545</v>
+        <v>1.050150385907799</v>
       </c>
       <c r="N22">
-        <v>1.004316466128642</v>
+        <v>1.018643822881007</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9819723885985977</v>
+        <v>1.039178633908872</v>
       </c>
       <c r="D23">
-        <v>1.00507186570002</v>
+        <v>1.04350303820821</v>
       </c>
       <c r="E23">
-        <v>0.9927309812372994</v>
+        <v>1.043082927247878</v>
       </c>
       <c r="F23">
-        <v>0.9841636503936634</v>
+        <v>1.047036453088422</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037460299959293</v>
+        <v>1.043807457325605</v>
       </c>
       <c r="J23">
-        <v>1.012845019461388</v>
+        <v>1.045855874214717</v>
       </c>
       <c r="K23">
-        <v>1.020233014081721</v>
+        <v>1.047115667123532</v>
       </c>
       <c r="L23">
-        <v>1.008131641206933</v>
+        <v>1.046697123380058</v>
       </c>
       <c r="M23">
-        <v>0.9997352368079205</v>
+        <v>1.05063595572426</v>
       </c>
       <c r="N23">
-        <v>1.005128087350973</v>
+        <v>1.018769867165756</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9931419461178288</v>
+        <v>1.041052177200934</v>
       </c>
       <c r="D24">
-        <v>1.013894710020509</v>
+        <v>1.045000660615752</v>
       </c>
       <c r="E24">
-        <v>1.00295585154965</v>
+        <v>1.044877490408878</v>
       </c>
       <c r="F24">
-        <v>0.9964523890078509</v>
+        <v>1.049220093801591</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042562107370625</v>
+        <v>1.044524516746452</v>
       </c>
       <c r="J24">
-        <v>1.020906571205715</v>
+        <v>1.047207943796234</v>
       </c>
       <c r="K24">
-        <v>1.027682134976196</v>
+        <v>1.048339610391718</v>
       </c>
       <c r="L24">
-        <v>1.016931257203187</v>
+        <v>1.048216861955732</v>
       </c>
       <c r="M24">
-        <v>1.010542092418058</v>
+        <v>1.052544660736459</v>
       </c>
       <c r="N24">
-        <v>1.008202132465488</v>
+        <v>1.019263502477195</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005342062945209</v>
+        <v>1.043220931327096</v>
       </c>
       <c r="D25">
-        <v>1.023552694143338</v>
+        <v>1.046733870060642</v>
       </c>
       <c r="E25">
-        <v>1.01415532339074</v>
+        <v>1.046956305444677</v>
       </c>
       <c r="F25">
-        <v>1.0098901674884</v>
+        <v>1.051750496364691</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048084018024477</v>
+        <v>1.045347894405272</v>
       </c>
       <c r="J25">
-        <v>1.029690973183219</v>
+        <v>1.048769424661719</v>
       </c>
       <c r="K25">
-        <v>1.035796064963562</v>
+        <v>1.049752429164505</v>
       </c>
       <c r="L25">
-        <v>1.026537799648035</v>
+        <v>1.049974181507218</v>
       </c>
       <c r="M25">
-        <v>1.022336867179278</v>
+        <v>1.054753727300543</v>
       </c>
       <c r="N25">
-        <v>1.011543476394711</v>
+        <v>1.019831018956487</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044946558196912</v>
+        <v>1.014542187796662</v>
       </c>
       <c r="D2">
-        <v>1.048112601328319</v>
+        <v>1.030848692429697</v>
       </c>
       <c r="E2">
-        <v>1.048611548717642</v>
+        <v>1.022622813144622</v>
       </c>
       <c r="F2">
-        <v>1.053766071812368</v>
+        <v>1.020037859056223</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045997656216752</v>
+        <v>1.052205873330165</v>
       </c>
       <c r="J2">
-        <v>1.050008921586046</v>
+        <v>1.036296476986166</v>
       </c>
       <c r="K2">
-        <v>1.050873354813739</v>
+        <v>1.041894355321288</v>
       </c>
       <c r="L2">
-        <v>1.051370910096921</v>
+        <v>1.033775722494835</v>
       </c>
       <c r="M2">
-        <v>1.056511135245837</v>
+        <v>1.031224918359767</v>
       </c>
       <c r="N2">
-        <v>1.020279421341814</v>
+        <v>1.014047861875295</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04619719095088</v>
+        <v>1.020949822223085</v>
       </c>
       <c r="D3">
-        <v>1.049111611676476</v>
+        <v>1.035935909834741</v>
       </c>
       <c r="E3">
-        <v>1.049811845816773</v>
+        <v>1.028531618807647</v>
       </c>
       <c r="F3">
-        <v>1.055228126875075</v>
+        <v>1.027114552551139</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046465442010958</v>
+        <v>1.055051399184588</v>
       </c>
       <c r="J3">
-        <v>1.050905528185158</v>
+        <v>1.040885221412847</v>
       </c>
       <c r="K3">
-        <v>1.051683860775927</v>
+        <v>1.046128738755003</v>
       </c>
       <c r="L3">
-        <v>1.052382283382463</v>
+        <v>1.038811997367746</v>
       </c>
       <c r="M3">
-        <v>1.057784639903008</v>
+        <v>1.037411865221754</v>
       </c>
       <c r="N3">
-        <v>1.020602559376399</v>
+        <v>1.015782219886935</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04700538761458</v>
+        <v>1.024980131832734</v>
       </c>
       <c r="D4">
-        <v>1.049757099156007</v>
+        <v>1.039137856726316</v>
       </c>
       <c r="E4">
-        <v>1.050587822955968</v>
+        <v>1.032253095971849</v>
       </c>
       <c r="F4">
-        <v>1.056173549686864</v>
+        <v>1.031570155833099</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046766292966245</v>
+        <v>1.056829259564791</v>
       </c>
       <c r="J4">
-        <v>1.051484150606172</v>
+        <v>1.043765731370806</v>
       </c>
       <c r="K4">
-        <v>1.052206764253219</v>
+        <v>1.048785799655855</v>
       </c>
       <c r="L4">
-        <v>1.053035447810978</v>
+        <v>1.041977235358907</v>
       </c>
       <c r="M4">
-        <v>1.058607545703716</v>
+        <v>1.041301921836616</v>
       </c>
       <c r="N4">
-        <v>1.02081052835659</v>
+        <v>1.016868225448571</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047344906979854</v>
+        <v>1.026648125536942</v>
       </c>
       <c r="D5">
-        <v>1.050028239804374</v>
+        <v>1.040463471405016</v>
       </c>
       <c r="E5">
-        <v>1.050913880566358</v>
+        <v>1.033794407556557</v>
       </c>
       <c r="F5">
-        <v>1.056570861047811</v>
+        <v>1.03341526922617</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046892332445008</v>
+        <v>1.057562146552794</v>
       </c>
       <c r="J5">
-        <v>1.051727037134713</v>
+        <v>1.044956447527429</v>
       </c>
       <c r="K5">
-        <v>1.052426224714892</v>
+        <v>1.049883896611818</v>
       </c>
       <c r="L5">
-        <v>1.053309739088548</v>
+        <v>1.043286563011833</v>
       </c>
       <c r="M5">
-        <v>1.058953227685894</v>
+        <v>1.042911536683188</v>
       </c>
       <c r="N5">
-        <v>1.020897690594874</v>
+        <v>1.017316466723444</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047401899435292</v>
+        <v>1.026926682368691</v>
       </c>
       <c r="D6">
-        <v>1.050073752550088</v>
+        <v>1.040684875028192</v>
       </c>
       <c r="E6">
-        <v>1.050968617600307</v>
+        <v>1.034051873529167</v>
       </c>
       <c r="F6">
-        <v>1.0566375630555</v>
+        <v>1.033723471306274</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046913469377255</v>
+        <v>1.057684367691018</v>
       </c>
       <c r="J6">
-        <v>1.051767797451206</v>
+        <v>1.045155213895491</v>
       </c>
       <c r="K6">
-        <v>1.052463051574066</v>
+        <v>1.050067186906376</v>
       </c>
       <c r="L6">
-        <v>1.053355776351899</v>
+        <v>1.04350518301242</v>
       </c>
       <c r="M6">
-        <v>1.059011253650648</v>
+        <v>1.04318032492578</v>
       </c>
       <c r="N6">
-        <v>1.020912309833656</v>
+        <v>1.017391250771332</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047009925252615</v>
+        <v>1.02500252141848</v>
       </c>
       <c r="D7">
-        <v>1.049760723020939</v>
+        <v>1.039155648847949</v>
       </c>
       <c r="E7">
-        <v>1.050592180390805</v>
+        <v>1.032273780679248</v>
       </c>
       <c r="F7">
-        <v>1.056178859141672</v>
+        <v>1.031594918484341</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046767978831902</v>
+        <v>1.056839108689034</v>
       </c>
       <c r="J7">
-        <v>1.051487397503803</v>
+        <v>1.043781720095001</v>
       </c>
       <c r="K7">
-        <v>1.052209698138223</v>
+        <v>1.048800545718151</v>
       </c>
       <c r="L7">
-        <v>1.053039114075767</v>
+        <v>1.041994813157656</v>
       </c>
       <c r="M7">
-        <v>1.05861216576917</v>
+        <v>1.041323529102222</v>
       </c>
       <c r="N7">
-        <v>1.020811694074288</v>
+        <v>1.016874247087083</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045369434450585</v>
+        <v>1.016732536896173</v>
       </c>
       <c r="D8">
-        <v>1.048450417500197</v>
+        <v>1.032587178421524</v>
       </c>
       <c r="E8">
-        <v>1.049017340701103</v>
+        <v>1.02464157613704</v>
       </c>
       <c r="F8">
-        <v>1.054260312585511</v>
+        <v>1.022455996668245</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046156128152973</v>
+        <v>1.053181062998279</v>
       </c>
       <c r="J8">
-        <v>1.05031225496768</v>
+        <v>1.037866252556449</v>
       </c>
       <c r="K8">
-        <v>1.051147591117724</v>
+        <v>1.043343111789732</v>
       </c>
       <c r="L8">
-        <v>1.051712971495505</v>
+        <v>1.035497794370105</v>
       </c>
       <c r="M8">
-        <v>1.056941760248066</v>
+        <v>1.033340141640801</v>
       </c>
       <c r="N8">
-        <v>1.020388860414872</v>
+        <v>1.014641725734149</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042470487156607</v>
+        <v>1.001204037478702</v>
       </c>
       <c r="D9">
-        <v>1.046134186705304</v>
+        <v>1.020274600462585</v>
       </c>
       <c r="E9">
-        <v>1.046236798595462</v>
+        <v>1.010353011666748</v>
       </c>
       <c r="F9">
-        <v>1.050874574476566</v>
+        <v>1.005330215711143</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045063817995636</v>
+        <v>1.046217706816051</v>
       </c>
       <c r="J9">
-        <v>1.048229566911073</v>
+        <v>1.026714349604759</v>
       </c>
       <c r="K9">
-        <v>1.049264056036915</v>
+        <v>1.03304708298041</v>
       </c>
       <c r="L9">
-        <v>1.049366340290079</v>
+        <v>1.023280322324812</v>
       </c>
       <c r="M9">
-        <v>1.053989380935107</v>
+        <v>1.018337401805008</v>
       </c>
       <c r="N9">
-        <v>1.0196351320679</v>
+        <v>1.010412454430271</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040532094807151</v>
+        <v>0.9901028009157024</v>
       </c>
       <c r="D10">
-        <v>1.044584960535302</v>
+        <v>1.011492164463459</v>
       </c>
       <c r="E10">
-        <v>1.044379214896562</v>
+        <v>1.000171059831512</v>
       </c>
       <c r="F10">
-        <v>1.048613720758785</v>
+        <v>0.9931076068456773</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044325988896067</v>
+        <v>1.041177951736689</v>
       </c>
       <c r="J10">
-        <v>1.046832903308447</v>
+        <v>1.018714673654676</v>
       </c>
       <c r="K10">
-        <v>1.048000163887194</v>
+        <v>1.025656978817201</v>
       </c>
       <c r="L10">
-        <v>1.047795140254658</v>
+        <v>1.014537226426965</v>
       </c>
       <c r="M10">
-        <v>1.052014849184872</v>
+        <v>1.007602430754413</v>
       </c>
       <c r="N10">
-        <v>1.019126778122367</v>
+        <v>1.007366911047325</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039691326353508</v>
+        <v>0.9850908151877966</v>
       </c>
       <c r="D11">
-        <v>1.043912888899826</v>
+        <v>1.007533131164806</v>
       </c>
       <c r="E11">
-        <v>1.04357389103668</v>
+        <v>0.9955829329211803</v>
       </c>
       <c r="F11">
-        <v>1.047633797151841</v>
+        <v>0.9875934696220224</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044004194019674</v>
+        <v>1.038888624266205</v>
       </c>
       <c r="J11">
-        <v>1.046226145963908</v>
+        <v>1.015097261496011</v>
       </c>
       <c r="K11">
-        <v>1.047450903820174</v>
+        <v>1.022314368339077</v>
       </c>
       <c r="L11">
-        <v>1.047113142154535</v>
+        <v>1.010588632181138</v>
       </c>
       <c r="M11">
-        <v>1.051158301395514</v>
+        <v>1.002753209931213</v>
       </c>
       <c r="N11">
-        <v>1.018905250049665</v>
+        <v>1.00598748397287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039378807425609</v>
+        <v>0.9831956668506987</v>
       </c>
       <c r="D12">
-        <v>1.043663061060415</v>
+        <v>1.006037168090552</v>
       </c>
       <c r="E12">
-        <v>1.043274606827554</v>
+        <v>0.9938494769219025</v>
       </c>
       <c r="F12">
-        <v>1.047269659479148</v>
+        <v>0.9855089924587278</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04388431584649</v>
+        <v>1.038020938729606</v>
       </c>
       <c r="J12">
-        <v>1.046000466299448</v>
+        <v>1.013728645254052</v>
       </c>
       <c r="K12">
-        <v>1.04724658260117</v>
+        <v>1.021049612335266</v>
       </c>
       <c r="L12">
-        <v>1.046859564769043</v>
+        <v>1.009095467564201</v>
       </c>
       <c r="M12">
-        <v>1.05083990102202</v>
+        <v>1.000919184744008</v>
       </c>
       <c r="N12">
-        <v>1.018822752010188</v>
+        <v>1.005465301318304</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039445853836269</v>
+        <v>0.983603743586471</v>
       </c>
       <c r="D13">
-        <v>1.04371665865327</v>
+        <v>1.006359240317583</v>
       </c>
       <c r="E13">
-        <v>1.043338811209641</v>
+        <v>0.9942226711120492</v>
       </c>
       <c r="F13">
-        <v>1.047347775154593</v>
+        <v>0.985957813437337</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04391004595995</v>
+        <v>1.038207865824692</v>
       </c>
       <c r="J13">
-        <v>1.046048889121282</v>
+        <v>1.014023379771776</v>
       </c>
       <c r="K13">
-        <v>1.047290423893665</v>
+        <v>1.021321984916059</v>
       </c>
       <c r="L13">
-        <v>1.046913969485856</v>
+        <v>1.009416989890676</v>
       </c>
       <c r="M13">
-        <v>1.050908209951805</v>
+        <v>1.001314119624311</v>
       </c>
       <c r="N13">
-        <v>1.018840457761805</v>
+        <v>1.005577766694855</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039665497960092</v>
+        <v>0.9849348610138609</v>
       </c>
       <c r="D14">
-        <v>1.043892241957853</v>
+        <v>1.007410004586426</v>
       </c>
       <c r="E14">
-        <v>1.043549155216522</v>
+        <v>0.9954402551950828</v>
       </c>
       <c r="F14">
-        <v>1.04760370052336</v>
+        <v>0.9874219247122136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043994291989261</v>
+        <v>1.038817262269136</v>
       </c>
       <c r="J14">
-        <v>1.046207497413718</v>
+        <v>1.014984651887208</v>
       </c>
       <c r="K14">
-        <v>1.047434020734706</v>
+        <v>1.022210306432848</v>
       </c>
       <c r="L14">
-        <v>1.047092186550471</v>
+        <v>1.01046575948968</v>
       </c>
       <c r="M14">
-        <v>1.051131987257844</v>
+        <v>1.002602294420513</v>
       </c>
       <c r="N14">
-        <v>1.01889843508091</v>
+        <v>1.005944524391026</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039800798640569</v>
+        <v>0.9857504857840025</v>
       </c>
       <c r="D15">
-        <v>1.044000399285061</v>
+        <v>1.008053987366161</v>
       </c>
       <c r="E15">
-        <v>1.043678734958284</v>
+        <v>0.9961865038576345</v>
       </c>
       <c r="F15">
-        <v>1.047761364468401</v>
+        <v>0.9883191092265509</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044046152406974</v>
+        <v>1.039190395935645</v>
       </c>
       <c r="J15">
-        <v>1.046305180963502</v>
+        <v>1.01557355727952</v>
       </c>
       <c r="K15">
-        <v>1.047522455432101</v>
+        <v>1.022754506292262</v>
       </c>
       <c r="L15">
-        <v>1.047201958336448</v>
+        <v>1.011108367458169</v>
       </c>
       <c r="M15">
-        <v>1.051269831818969</v>
+        <v>1.003391550123309</v>
       </c>
       <c r="N15">
-        <v>1.018934128606701</v>
+        <v>1.006169175227354</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04058786325001</v>
+        <v>0.9904308888827851</v>
       </c>
       <c r="D16">
-        <v>1.044629537178329</v>
+        <v>1.011751461565185</v>
       </c>
       <c r="E16">
-        <v>1.044432640632119</v>
+        <v>1.0004715923107</v>
       </c>
       <c r="F16">
-        <v>1.048678734316043</v>
+        <v>0.9934686454892684</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04434729650758</v>
+        <v>1.041327528216451</v>
       </c>
       <c r="J16">
-        <v>1.046873129504492</v>
+        <v>1.018951359213984</v>
       </c>
       <c r="K16">
-        <v>1.048036574349923</v>
+        <v>1.025875668261249</v>
       </c>
       <c r="L16">
-        <v>1.047840366962981</v>
+        <v>1.014795684505242</v>
       </c>
       <c r="M16">
-        <v>1.052071662039879</v>
+        <v>1.007919807651961</v>
       </c>
       <c r="N16">
-        <v>1.019141450455566</v>
+        <v>1.007457123819542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041081181250008</v>
+        <v>0.9933100925797929</v>
       </c>
       <c r="D17">
-        <v>1.045023842757588</v>
+        <v>1.014027675867865</v>
       </c>
       <c r="E17">
-        <v>1.044905281013992</v>
+        <v>1.003109984300553</v>
       </c>
       <c r="F17">
-        <v>1.049253914966243</v>
+        <v>0.9966374729522383</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044535576258802</v>
+        <v>1.042638595116788</v>
       </c>
       <c r="J17">
-        <v>1.047228852573967</v>
+        <v>1.021027803930414</v>
       </c>
       <c r="K17">
-        <v>1.048358533533036</v>
+        <v>1.027794139698918</v>
       </c>
       <c r="L17">
-        <v>1.048240377218271</v>
+        <v>1.017063703078187</v>
       </c>
       <c r="M17">
-        <v>1.052574206653802</v>
+        <v>1.010704717439967</v>
       </c>
       <c r="N17">
-        <v>1.019271120315311</v>
+        <v>1.008248313152775</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041368787486297</v>
+        <v>0.9949698920254921</v>
       </c>
       <c r="D18">
-        <v>1.045253714484456</v>
+        <v>1.015340426088844</v>
       </c>
       <c r="E18">
-        <v>1.045180870086031</v>
+        <v>1.004631784133551</v>
       </c>
       <c r="F18">
-        <v>1.049589316006085</v>
+        <v>0.9984646277357432</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044645173918123</v>
+        <v>1.043393077543452</v>
       </c>
       <c r="J18">
-        <v>1.0474361477903</v>
+        <v>1.022224286970625</v>
       </c>
       <c r="K18">
-        <v>1.048546135429713</v>
+        <v>1.028899515282873</v>
       </c>
       <c r="L18">
-        <v>1.048473536707789</v>
+        <v>1.018371043053504</v>
       </c>
       <c r="M18">
-        <v>1.05286718204807</v>
+        <v>1.012309916438744</v>
       </c>
       <c r="N18">
-        <v>1.019346618832617</v>
+        <v>1.008703995309883</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04146683055595</v>
+        <v>0.9955325935886393</v>
       </c>
       <c r="D19">
-        <v>1.045332074538289</v>
+        <v>1.015785563371087</v>
       </c>
       <c r="E19">
-        <v>1.045274823007508</v>
+        <v>1.005147838307996</v>
       </c>
       <c r="F19">
-        <v>1.04970366366168</v>
+        <v>0.9990841344984133</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044682506173553</v>
+        <v>1.043648634901636</v>
       </c>
       <c r="J19">
-        <v>1.047506797637759</v>
+        <v>1.022629821929365</v>
       </c>
       <c r="K19">
-        <v>1.048610070449849</v>
+        <v>1.029274156180393</v>
       </c>
       <c r="L19">
-        <v>1.04855301109089</v>
+        <v>1.018814231242418</v>
       </c>
       <c r="M19">
-        <v>1.052967053749612</v>
+        <v>1.012854067295939</v>
       </c>
       <c r="N19">
-        <v>1.019372338891729</v>
+        <v>1.008858406019625</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041028267188801</v>
+        <v>0.9930032259517217</v>
       </c>
       <c r="D20">
-        <v>1.04498154994211</v>
+        <v>1.013785016886062</v>
       </c>
       <c r="E20">
-        <v>1.044854580935143</v>
+        <v>1.002828697292312</v>
       </c>
       <c r="F20">
-        <v>1.049192213099958</v>
+        <v>0.996299697725298</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044515398678223</v>
+        <v>1.042498997794836</v>
       </c>
       <c r="J20">
-        <v>1.047190706744864</v>
+        <v>1.020806551600276</v>
       </c>
       <c r="K20">
-        <v>1.048324010185706</v>
+        <v>1.027589728211823</v>
       </c>
       <c r="L20">
-        <v>1.04819747645338</v>
+        <v>1.016821989164826</v>
       </c>
       <c r="M20">
-        <v>1.052520303969224</v>
+        <v>1.010407926050698</v>
       </c>
       <c r="N20">
-        <v>1.019257222013573</v>
+        <v>1.008164031181427</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03960082435578</v>
+        <v>0.9845438271224747</v>
       </c>
       <c r="D21">
-        <v>1.043840542336093</v>
+        <v>1.007101298606484</v>
       </c>
       <c r="E21">
-        <v>1.043487218352983</v>
+        <v>0.9950825333984104</v>
       </c>
       <c r="F21">
-        <v>1.047528341084202</v>
+        <v>0.986991807689806</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043969493291347</v>
+        <v>1.038638299212688</v>
       </c>
       <c r="J21">
-        <v>1.046160799617109</v>
+        <v>1.014702286168838</v>
       </c>
       <c r="K21">
-        <v>1.047391743394287</v>
+        <v>1.021949372178656</v>
       </c>
       <c r="L21">
-        <v>1.04703971307958</v>
+        <v>1.010157671446566</v>
       </c>
       <c r="M21">
-        <v>1.051066097099988</v>
+        <v>1.002223887387241</v>
       </c>
       <c r="N21">
-        <v>1.018881368085281</v>
+        <v>1.005836799870885</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038702058539046</v>
+        <v>0.9790298386074274</v>
       </c>
       <c r="D22">
-        <v>1.043122041715458</v>
+        <v>1.002750880920069</v>
       </c>
       <c r="E22">
-        <v>1.042626627103284</v>
+        <v>0.9900418096876455</v>
       </c>
       <c r="F22">
-        <v>1.046481325301344</v>
+        <v>0.980927907472124</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043624239295009</v>
+        <v>1.036109948974741</v>
       </c>
       <c r="J22">
-        <v>1.04551150144746</v>
+        <v>1.010718845563337</v>
       </c>
       <c r="K22">
-        <v>1.04680384387835</v>
+        <v>1.018268038589712</v>
       </c>
       <c r="L22">
-        <v>1.046310316044852</v>
+        <v>1.005813155586449</v>
       </c>
       <c r="M22">
-        <v>1.050150385907799</v>
+        <v>0.9968868966605424</v>
       </c>
       <c r="N22">
-        <v>1.018643822881007</v>
+        <v>1.004316466128641</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039178633908872</v>
+        <v>0.9819723885985998</v>
       </c>
       <c r="D23">
-        <v>1.04350303820821</v>
+        <v>1.005071865700022</v>
       </c>
       <c r="E23">
-        <v>1.043082927247878</v>
+        <v>0.9927309812373015</v>
       </c>
       <c r="F23">
-        <v>1.047036453088422</v>
+        <v>0.9841636503936653</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043807457325605</v>
+        <v>1.037460299959294</v>
       </c>
       <c r="J23">
-        <v>1.045855874214717</v>
+        <v>1.01284501946139</v>
       </c>
       <c r="K23">
-        <v>1.047115667123532</v>
+        <v>1.020233014081723</v>
       </c>
       <c r="L23">
-        <v>1.046697123380058</v>
+        <v>1.008131641206935</v>
       </c>
       <c r="M23">
-        <v>1.05063595572426</v>
+        <v>0.9997352368079224</v>
       </c>
       <c r="N23">
-        <v>1.018769867165756</v>
+        <v>1.005128087350974</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041052177200934</v>
+        <v>0.9931419461178285</v>
       </c>
       <c r="D24">
-        <v>1.045000660615752</v>
+        <v>1.013894710020509</v>
       </c>
       <c r="E24">
-        <v>1.044877490408878</v>
+        <v>1.00295585154965</v>
       </c>
       <c r="F24">
-        <v>1.049220093801591</v>
+        <v>0.9964523890078506</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044524516746452</v>
+        <v>1.042562107370625</v>
       </c>
       <c r="J24">
-        <v>1.047207943796234</v>
+        <v>1.020906571205715</v>
       </c>
       <c r="K24">
-        <v>1.048339610391718</v>
+        <v>1.027682134976196</v>
       </c>
       <c r="L24">
-        <v>1.048216861955732</v>
+        <v>1.016931257203187</v>
       </c>
       <c r="M24">
-        <v>1.052544660736459</v>
+        <v>1.010542092418057</v>
       </c>
       <c r="N24">
-        <v>1.019263502477195</v>
+        <v>1.008202132465488</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043220931327096</v>
+        <v>1.005342062945211</v>
       </c>
       <c r="D25">
-        <v>1.046733870060642</v>
+        <v>1.02355269414334</v>
       </c>
       <c r="E25">
-        <v>1.046956305444677</v>
+        <v>1.014155323390743</v>
       </c>
       <c r="F25">
-        <v>1.051750496364691</v>
+        <v>1.009890167488401</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045347894405272</v>
+        <v>1.048084018024479</v>
       </c>
       <c r="J25">
-        <v>1.048769424661719</v>
+        <v>1.029690973183221</v>
       </c>
       <c r="K25">
-        <v>1.049752429164505</v>
+        <v>1.035796064963564</v>
       </c>
       <c r="L25">
-        <v>1.049974181507218</v>
+        <v>1.026537799648038</v>
       </c>
       <c r="M25">
-        <v>1.054753727300543</v>
+        <v>1.02233686717928</v>
       </c>
       <c r="N25">
-        <v>1.019831018956487</v>
+        <v>1.011543476394711</v>
       </c>
     </row>
   </sheetData>
